--- a/documentation/MecProInverter_Projektplan.xlsx
+++ b/documentation/MecProInverter_Projektplan.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9308E720-F30A-49D1-8037-CC1379676601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D0C65-D1AB-4CFA-A2C6-E8FC7BB32D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="567" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="567" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anleitung" sheetId="4" r:id="rId1"/>
     <sheet name="Daten" sheetId="3" r:id="rId2"/>
-    <sheet name="Plan-Grafik" sheetId="2" r:id="rId3"/>
+    <sheet name="Arbeitsstunden" sheetId="5" r:id="rId3"/>
+    <sheet name="Plan-Grafik" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -473,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -650,58 +651,58 @@
                   <c:v>45225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>45225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45225</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45225</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -755,10 +756,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -779,7 +780,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -794,7 +795,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1</c:v>
@@ -855,58 +856,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>55</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -948,16 +949,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -981,7 +982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -996,7 +997,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1053,23 +1054,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1086,11 +1087,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1101,10 +1102,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1158,22 +1159,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
@@ -1191,10 +1192,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>14</c:v>
@@ -1206,10 +1207,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7</c:v>
@@ -1363,16 +1364,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1396,7 +1397,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1411,7 +1412,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1642,7 +1643,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="14916150" cy="8753475"/>
+    <xdr:ext cx="14678025" cy="8734425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2147,10 +2148,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2612,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2709,15 +2706,15 @@
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E35" ca="1" si="0">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F3" s="9">
         <f ca="1">IF(E3&lt;B3,0,IF(E3&gt;(C3+B3),C3,E3-B3))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">C3-F3-M3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
         <f ca="1">IF(E3&lt;B3,E3,B3)</f>
@@ -2737,11 +2734,11 @@
       </c>
       <c r="L3" s="9">
         <f ca="1">IF(E3&gt;D3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="9">
         <f ca="1">IF(SUM(K3:L3)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2760,15 +2757,15 @@
       </c>
       <c r="E4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">IF(E4&lt;B4,0,IF(E4&gt;(C4+B4),C4,E4-B4))</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">C4-F4-M4</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H4" s="10">
         <f ca="1">IF(E4&lt;B4,E4,B4)</f>
@@ -2841,44 +2838,44 @@
         <v>7</v>
       </c>
       <c r="D7" s="17">
-        <f>IF(B7,B7+C7-1,"")</f>
+        <f t="shared" ref="D7:D15" si="1">IF(B7,B7+C7-1,"")</f>
         <v>45231</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ca="1" si="0"/>
+        <v>45232</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" ref="F7:F15" ca="1" si="2">IF(E7&lt;B7,0,IF(E7&gt;(C7+B7),C7,E7-B7))</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G15" ca="1" si="3">C7-F7-M7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" ref="H7:H15" ca="1" si="4">IF(E7&lt;B7,E7,B7)</f>
         <v>45225</v>
       </c>
-      <c r="F7" s="9">
-        <f ca="1">IF(E7&lt;B7,0,IF(E7&gt;(C7+B7),C7,E7-B7))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <f ca="1">C7-F7-M7</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="10">
-        <f ca="1">IF(E7&lt;B7,E7,B7)</f>
-        <v>45225</v>
-      </c>
       <c r="I7" s="11">
-        <f ca="1">B7-H7-K7</f>
+        <f t="shared" ref="I7:I15" ca="1" si="5">B7-H7-K7</f>
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <f ca="1">IF(E7&gt;D7,E7-D7-1,0)</f>
+        <f t="shared" ref="J7:J15" ca="1" si="6">IF(E7&gt;D7,E7-D7-1,0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <f ca="1">IF(B7-H7&gt;1,1,0)</f>
+        <f t="shared" ref="K7:K15" ca="1" si="7">IF(B7-H7&gt;1,1,0)</f>
         <v>0</v>
       </c>
       <c r="L7" s="9">
-        <f ca="1">IF(E7&gt;D7,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="L7:L15" ca="1" si="8">IF(E7&gt;D7,1,0)</f>
+        <v>1</v>
       </c>
       <c r="M7" s="9">
-        <f ca="1">IF(SUM(K7:L7)=0,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="M7:M15" ca="1" si="9">IF(SUM(K7:L7)=0,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2892,44 +2889,44 @@
         <v>7</v>
       </c>
       <c r="D8" s="17">
-        <f>IF(B8,B8+C8-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45231</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ca="1" si="0"/>
+        <v>45232</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>45225</v>
       </c>
-      <c r="F8" s="9">
-        <f ca="1">IF(E8&lt;B8,0,IF(E8&gt;(C8+B8),C8,E8-B8))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <f ca="1">C8-F8-M8</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="10">
-        <f ca="1">IF(E8&lt;B8,E8,B8)</f>
-        <v>45225</v>
-      </c>
       <c r="I8" s="11">
-        <f ca="1">B8-H8-K8</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <f ca="1">IF(E8&gt;D8,E8-D8-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <f ca="1">IF(B8-H8&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <f ca="1">IF(E8&gt;D8,1,0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="M8" s="9">
-        <f ca="1">IF(SUM(K8:L8)=0,1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2943,44 +2940,44 @@
         <v>1</v>
       </c>
       <c r="D9" s="17">
-        <f>IF(B9,B9+C9-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45232</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F9" s="9">
-        <f ca="1">IF(E9&lt;B9,0,IF(E9&gt;(C9+B9),C9,E9-B9))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f ca="1">C9-F9-M9</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <f ca="1">IF(E9&lt;B9,E9,B9)</f>
-        <v>45225</v>
-      </c>
-      <c r="I9" s="11">
-        <f ca="1">B9-H9-K9</f>
-        <v>6</v>
-      </c>
-      <c r="J9" s="9">
-        <f ca="1">IF(E9&gt;D9,E9-D9-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <f ca="1">IF(B9-H9&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <f ca="1">IF(E9&gt;D9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <f ca="1">IF(SUM(K9:L9)=0,1,0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2994,44 +2991,44 @@
         <v>14</v>
       </c>
       <c r="D10" s="17">
-        <f>IF(B10,B10+C10-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45245</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F10" s="9">
-        <f ca="1">IF(E10&lt;B10,0,IF(E10&gt;(C10+B10),C10,E10-B10))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f ca="1">C10-F10-M10</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
       </c>
       <c r="H10" s="10">
-        <f ca="1">IF(E10&lt;B10,E10,B10)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I10" s="11">
-        <f ca="1">B10-H10-K10</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
-        <f ca="1">IF(E10&gt;D10,E10-D10-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <f ca="1">IF(B10-H10&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
-      </c>
-      <c r="L10" s="9">
-        <f ca="1">IF(E10&gt;D10,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <f ca="1">IF(SUM(K10:L10)=0,1,0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -3045,43 +3042,43 @@
         <v>7</v>
       </c>
       <c r="D11" s="17">
-        <f>IF(B11,B11+C11-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45245</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F11" s="9">
-        <f ca="1">IF(E11&lt;B11,0,IF(E11&gt;(C11+B11),C11,E11-B11))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f ca="1">C11-F11-M11</f>
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
       <c r="H11" s="10">
-        <f ca="1">IF(E11&lt;B11,E11,B11)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I11" s="11">
-        <f ca="1">B11-H11-K11</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="J11" s="9">
-        <f ca="1">IF(E11&gt;D11,E11-D11-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <f ca="1">IF(B11-H11&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L11" s="9">
-        <f ca="1">IF(E11&gt;D11,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f ca="1">IF(SUM(K11:L11)=0,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3096,43 +3093,43 @@
         <v>1</v>
       </c>
       <c r="D12" s="17">
-        <f>IF(B12,B12+C12-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45246</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F12" s="9">
-        <f ca="1">IF(E12&lt;B12,0,IF(E12&gt;(C12+B12),C12,E12-B12))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <f ca="1">C12-F12-M12</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H12" s="10">
-        <f ca="1">IF(E12&lt;B12,E12,B12)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I12" s="11">
-        <f ca="1">B12-H12-K12</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="J12" s="9">
-        <f ca="1">IF(E12&gt;D12,E12-D12-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K12" s="9">
-        <f ca="1">IF(B12-H12&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L12" s="9">
-        <f ca="1">IF(E12&gt;D12,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <f ca="1">IF(SUM(K12:L12)=0,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3147,43 +3144,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="17">
-        <f>IF(B13,B13+C13-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45259</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F13" s="9">
-        <f ca="1">IF(E13&lt;B13,0,IF(E13&gt;(C13+B13),C13,E13-B13))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f ca="1">C13-F13-M13</f>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="H13" s="10">
-        <f ca="1">IF(E13&lt;B13,E13,B13)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I13" s="11">
-        <f ca="1">B13-H13-K13</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="J13" s="9">
-        <f ca="1">IF(E13&gt;D13,E13-D13-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <f ca="1">IF(B13-H13&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L13" s="9">
-        <f ca="1">IF(E13&gt;D13,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f ca="1">IF(SUM(K13:L13)=0,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3198,43 +3195,43 @@
         <v>1</v>
       </c>
       <c r="D14" s="17">
-        <f>IF(B14,B14+C14-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45260</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F14" s="9">
-        <f ca="1">IF(E14&lt;B14,0,IF(E14&gt;(C14+B14),C14,E14-B14))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <f ca="1">C14-F14-M14</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H14" s="10">
-        <f ca="1">IF(E14&lt;B14,E14,B14)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I14" s="11">
-        <f ca="1">B14-H14-K14</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="J14" s="9">
-        <f ca="1">IF(E14&gt;D14,E14-D14-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <f ca="1">IF(B14-H14&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L14" s="9">
-        <f ca="1">IF(E14&gt;D14,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M14" s="9">
-        <f ca="1">IF(SUM(K14:L14)=0,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,43 +3246,43 @@
         <v>5</v>
       </c>
       <c r="D15" s="17">
-        <f>IF(B15,B15+C15-1,"")</f>
+        <f t="shared" si="1"/>
         <v>45264</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F15" s="9">
-        <f ca="1">IF(E15&lt;B15,0,IF(E15&gt;(C15+B15),C15,E15-B15))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <f ca="1">C15-F15-M15</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="H15" s="10">
-        <f ca="1">IF(E15&lt;B15,E15,B15)</f>
-        <v>45225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45232</v>
       </c>
       <c r="I15" s="11">
-        <f ca="1">B15-H15-K15</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="J15" s="9">
-        <f ca="1">IF(E15&gt;D15,E15-D15-1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <f ca="1">IF(B15-H15&gt;1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L15" s="9">
-        <f ca="1">IF(E15&gt;D15,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f ca="1">IF(SUM(K15:L15)=0,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3336,15 +3333,15 @@
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">IF(E18&lt;B18,0,IF(E18&gt;(C18+B18),C18,E18-B18))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" s="9">
         <f ca="1">C18-F18-M18</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" s="10">
         <f ca="1">IF(E18&lt;B18,E18,B18)</f>
@@ -3364,11 +3361,11 @@
       </c>
       <c r="L18" s="9">
         <f ca="1">IF(E18&gt;D18,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="9">
         <f ca="1">IF(SUM(K18:L18)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -3387,7 +3384,7 @@
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F19" s="9">
         <f ca="1">IF(E19&lt;B19,0,IF(E19&gt;(C19+B19),C19,E19-B19))</f>
@@ -3395,15 +3392,15 @@
       </c>
       <c r="G19" s="9">
         <f ca="1">C19-F19-M19</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="10">
         <f ca="1">IF(E19&lt;B19,E19,B19)</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="I19" s="11">
         <f ca="1">B19-H19-K19</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
         <f ca="1">IF(E19&gt;D19,E19-D19-1,0)</f>
@@ -3411,7 +3408,7 @@
       </c>
       <c r="K19" s="9">
         <f ca="1">IF(B19-H19&gt;1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="9">
         <f ca="1">IF(E19&gt;D19,1,0)</f>
@@ -3419,7 +3416,7 @@
       </c>
       <c r="M19" s="9">
         <f ca="1">IF(SUM(K19:L19)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -3433,43 +3430,43 @@
         <v>14</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" ref="D20:D26" si="1">IF(B20,B20+C20-1,"")</f>
+        <f t="shared" ref="D20:D26" si="10">IF(B20,B20+C20-1,"")</f>
         <v>45259</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" ref="F20:F26" ca="1" si="2">IF(E20&lt;B20,0,IF(E20&gt;(C20+B20),C20,E20-B20))</f>
+        <f t="shared" ref="F20:F26" ca="1" si="11">IF(E20&lt;B20,0,IF(E20&gt;(C20+B20),C20,E20-B20))</f>
         <v>0</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" ref="G20:G26" ca="1" si="3">C20-F20-M20</f>
+        <f t="shared" ref="G20:G26" ca="1" si="12">C20-F20-M20</f>
         <v>14</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" ref="H20:H26" ca="1" si="4">IF(E20&lt;B20,E20,B20)</f>
-        <v>45225</v>
+        <f t="shared" ref="H20:H26" ca="1" si="13">IF(E20&lt;B20,E20,B20)</f>
+        <v>45232</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" ref="I20:I26" ca="1" si="5">B20-H20-K20</f>
-        <v>20</v>
+        <f t="shared" ref="I20:I26" ca="1" si="14">B20-H20-K20</f>
+        <v>13</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" ref="J20:J26" ca="1" si="6">IF(E20&gt;D20,E20-D20-1,0)</f>
+        <f t="shared" ref="J20:J26" ca="1" si="15">IF(E20&gt;D20,E20-D20-1,0)</f>
         <v>0</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" ref="K20:K26" ca="1" si="7">IF(B20-H20&gt;1,1,0)</f>
+        <f t="shared" ref="K20:K26" ca="1" si="16">IF(B20-H20&gt;1,1,0)</f>
         <v>1</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" ref="L20:L26" ca="1" si="8">IF(E20&gt;D20,1,0)</f>
+        <f t="shared" ref="L20:L26" ca="1" si="17">IF(E20&gt;D20,1,0)</f>
         <v>0</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:M26" ca="1" si="9">IF(SUM(K20:L20)=0,1,0)</f>
+        <f t="shared" ref="M20:M26" ca="1" si="18">IF(SUM(K20:L20)=0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3484,43 +3481,43 @@
         <v>14</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>45273</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>14</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45225</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45232</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,43 +3532,43 @@
         <v>7</v>
       </c>
       <c r="D22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>45280</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>7</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45225</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45232</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>41</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3623,15 +3620,15 @@
       </c>
       <c r="E25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F25" s="9">
         <f ca="1">IF(E25&lt;B25,0,IF(E25&gt;(C25+B25),C25,E25-B25))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="9">
         <f ca="1">C25-F25-M25</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
         <f ca="1">IF(E25&lt;B25,E25,B25)</f>
@@ -3651,11 +3648,11 @@
       </c>
       <c r="L25" s="9">
         <f ca="1">IF(E25&gt;D25,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="9">
         <f ca="1">IF(SUM(K25:L25)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -3669,44 +3666,44 @@
         <v>14</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>45245</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45225</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45232</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -3725,7 +3722,7 @@
       </c>
       <c r="E27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F27" s="9">
         <f ca="1">IF(E27&lt;B27,0,IF(E27&gt;(C27+B27),C27,E27-B27))</f>
@@ -3737,11 +3734,11 @@
       </c>
       <c r="H27" s="10">
         <f ca="1">IF(E27&lt;B27,E27,B27)</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="I27" s="11">
         <f ca="1">B27-H27-K27</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J27" s="9">
         <f ca="1">IF(E27&gt;D27,E27-D27-1,0)</f>
@@ -3776,7 +3773,7 @@
       </c>
       <c r="E28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F28" s="9">
         <f ca="1">IF(E28&lt;B28,0,IF(E28&gt;(C28+B28),C28,E28-B28))</f>
@@ -3788,11 +3785,11 @@
       </c>
       <c r="H28" s="10">
         <f ca="1">IF(E28&lt;B28,E28,B28)</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="I28" s="11">
         <f ca="1">B28-H28-K28</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J28" s="9">
         <f ca="1">IF(E28&gt;D28,E28-D28-1,0)</f>
@@ -3858,7 +3855,7 @@
       </c>
       <c r="E31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F31" s="9">
         <f ca="1">IF(E31&lt;B31,0,IF(E31&gt;(C31+B31),C31,E31-B31))</f>
@@ -3870,11 +3867,11 @@
       </c>
       <c r="H31" s="10">
         <f ca="1">IF(E31&lt;B31,E31,B31)</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="I31" s="11">
         <f ca="1">B31-H31-K31</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J31" s="9">
         <f ca="1">IF(E31&gt;D31,E31-D31-1,0)</f>
@@ -3909,7 +3906,7 @@
       </c>
       <c r="E32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F32" s="9">
         <f ca="1">IF(E32&lt;B32,0,IF(E32&gt;(C32+B32),C32,E32-B32))</f>
@@ -3921,11 +3918,11 @@
       </c>
       <c r="H32" s="10">
         <f ca="1">IF(E32&lt;B32,E32,B32)</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="I32" s="11">
         <f ca="1">B32-H32-K32</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J32" s="9">
         <f ca="1">IF(E32&gt;D32,E32-D32-1,0)</f>
@@ -3954,7 +3951,7 @@
       </c>
       <c r="E33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F33" s="9">
         <f ca="1">IF(E33&lt;B33,0,IF(E33&gt;(C33+B33),C33,E33-B33))</f>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="E34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F34" s="9">
         <f ca="1">IF(E34&lt;B34,0,IF(E34&gt;(C34+B34),C34,E34-B34))</f>
@@ -4044,7 +4041,7 @@
       </c>
       <c r="E35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="F35" s="9">
         <f ca="1">IF(E35&lt;B35,0,IF(E35&gt;(C35+B35),C35,E35-B35))</f>
@@ -4140,4 +4137,18 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A892DD0-1E86-4AC1-92B9-BF6F6E5EF5D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>